--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vasp-Cxcr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vasp-Cxcr2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>32.100253</v>
+        <v>29.72262366666667</v>
       </c>
       <c r="H2">
-        <v>96.300759</v>
+        <v>89.16787100000001</v>
       </c>
       <c r="I2">
-        <v>0.2668485857693392</v>
+        <v>0.2181294538094716</v>
       </c>
       <c r="J2">
-        <v>0.2668485857693392</v>
+        <v>0.2181294538094716</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.01989833333333333</v>
+        <v>0.01339666666666667</v>
       </c>
       <c r="N2">
-        <v>0.05969500000000001</v>
+        <v>0.04019</v>
       </c>
       <c r="O2">
-        <v>0.003279701059602489</v>
+        <v>0.08393217762128816</v>
       </c>
       <c r="P2">
-        <v>0.003279701059602489</v>
+        <v>0.08393217762128814</v>
       </c>
       <c r="Q2">
-        <v>0.6387415342783334</v>
+        <v>0.3981840817211111</v>
       </c>
       <c r="R2">
-        <v>5.748673808505001</v>
+        <v>3.58365673549</v>
       </c>
       <c r="S2">
-        <v>0.0008751835895011272</v>
+        <v>0.01830808006157114</v>
       </c>
       <c r="T2">
-        <v>0.0008751835895011272</v>
+        <v>0.01830808006157114</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,46 +602,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>32.100253</v>
+        <v>29.72262366666667</v>
       </c>
       <c r="H3">
-        <v>96.300759</v>
+        <v>89.16787100000001</v>
       </c>
       <c r="I3">
-        <v>0.2668485857693392</v>
+        <v>0.2181294538094716</v>
       </c>
       <c r="J3">
-        <v>0.2668485857693392</v>
+        <v>0.2181294538094716</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>2.520453</v>
+        <v>0.1260863333333333</v>
       </c>
       <c r="N3">
-        <v>7.561359000000001</v>
+        <v>0.378259</v>
       </c>
       <c r="O3">
-        <v>0.4154283796688972</v>
+        <v>0.7899502755623498</v>
       </c>
       <c r="P3">
-        <v>0.4154283796688972</v>
+        <v>0.7899502755623498</v>
       </c>
       <c r="Q3">
-        <v>80.90717897460901</v>
+        <v>3.747616635176556</v>
       </c>
       <c r="R3">
-        <v>728.1646107714811</v>
+        <v>33.728549716589</v>
       </c>
       <c r="S3">
-        <v>0.1108564756030933</v>
+        <v>0.172311422145057</v>
       </c>
       <c r="T3">
-        <v>0.1108564756030933</v>
+        <v>0.172311422145057</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>32.100253</v>
+        <v>29.72262366666667</v>
       </c>
       <c r="H4">
-        <v>96.300759</v>
+        <v>89.16787100000001</v>
       </c>
       <c r="I4">
-        <v>0.2668485857693392</v>
+        <v>0.2181294538094716</v>
       </c>
       <c r="J4">
-        <v>0.2668485857693392</v>
+        <v>0.2181294538094716</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>3.526766666666667</v>
+        <v>0.02013</v>
       </c>
       <c r="N4">
-        <v>10.5803</v>
+        <v>0.06039</v>
       </c>
       <c r="O4">
-        <v>0.5812919192715004</v>
+        <v>0.1261175468163621</v>
       </c>
       <c r="P4">
-        <v>0.5812919192715004</v>
+        <v>0.1261175468163621</v>
       </c>
       <c r="Q4">
-        <v>113.2101022719667</v>
+        <v>0.5983164144099999</v>
       </c>
       <c r="R4">
-        <v>1018.8909204477</v>
+        <v>5.384847729690001</v>
       </c>
       <c r="S4">
-        <v>0.1551169265767448</v>
+        <v>0.02750995160284352</v>
       </c>
       <c r="T4">
-        <v>0.1551169265767448</v>
+        <v>0.02750995160284352</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>68.716497</v>
       </c>
       <c r="I5">
-        <v>0.1904128299079454</v>
+        <v>0.1680996954419849</v>
       </c>
       <c r="J5">
-        <v>0.1904128299079454</v>
+        <v>0.1680996954419849</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.01989833333333333</v>
+        <v>0.01339666666666667</v>
       </c>
       <c r="N5">
-        <v>0.05969500000000001</v>
+        <v>0.04019</v>
       </c>
       <c r="O5">
-        <v>0.003279701059602489</v>
+        <v>0.08393217762128816</v>
       </c>
       <c r="P5">
-        <v>0.003279701059602489</v>
+        <v>0.08393217762128814</v>
       </c>
       <c r="Q5">
-        <v>0.4557812542683334</v>
+        <v>0.3068573349366667</v>
       </c>
       <c r="R5">
-        <v>4.102031288415001</v>
+        <v>2.76171601443</v>
       </c>
       <c r="S5">
-        <v>0.000624497160010997</v>
+        <v>0.01410897349592112</v>
       </c>
       <c r="T5">
-        <v>0.000624497160010997</v>
+        <v>0.01410897349592112</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,40 +794,40 @@
         <v>68.716497</v>
       </c>
       <c r="I6">
-        <v>0.1904128299079454</v>
+        <v>0.1680996954419849</v>
       </c>
       <c r="J6">
-        <v>0.1904128299079454</v>
+        <v>0.1680996954419849</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>2.520453</v>
+        <v>0.1260863333333333</v>
       </c>
       <c r="N6">
-        <v>7.561359000000001</v>
+        <v>0.378259</v>
       </c>
       <c r="O6">
-        <v>0.4154283796688972</v>
+        <v>0.7899502755623498</v>
       </c>
       <c r="P6">
-        <v>0.4154283796688972</v>
+        <v>0.7899502755623498</v>
       </c>
       <c r="Q6">
-        <v>57.73223367104701</v>
+        <v>2.888070382080334</v>
       </c>
       <c r="R6">
-        <v>519.5901030394231</v>
+        <v>25.992633438723</v>
       </c>
       <c r="S6">
-        <v>0.07910289339682708</v>
+        <v>0.132790400736343</v>
       </c>
       <c r="T6">
-        <v>0.07910289339682708</v>
+        <v>0.132790400736343</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>68.716497</v>
       </c>
       <c r="I7">
-        <v>0.1904128299079454</v>
+        <v>0.1680996954419849</v>
       </c>
       <c r="J7">
-        <v>0.1904128299079454</v>
+        <v>0.1680996954419849</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>3.526766666666667</v>
+        <v>0.02013</v>
       </c>
       <c r="N7">
-        <v>10.5803</v>
+        <v>0.06039</v>
       </c>
       <c r="O7">
-        <v>0.5812919192715004</v>
+        <v>0.1261175468163621</v>
       </c>
       <c r="P7">
-        <v>0.5812919192715004</v>
+        <v>0.1261175468163621</v>
       </c>
       <c r="Q7">
-        <v>80.78235035656668</v>
+        <v>0.46108769487</v>
       </c>
       <c r="R7">
-        <v>727.0411532091001</v>
+        <v>4.14978925383</v>
       </c>
       <c r="S7">
-        <v>0.1106854393511073</v>
+        <v>0.02120032120972073</v>
       </c>
       <c r="T7">
-        <v>0.1106854393511073</v>
+        <v>0.02120032120972073</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>19.00048866666667</v>
+        <v>44.20756266666667</v>
       </c>
       <c r="H8">
-        <v>57.00146599999999</v>
+        <v>132.622688</v>
       </c>
       <c r="I8">
-        <v>0.1579505784464177</v>
+        <v>0.3244320423012451</v>
       </c>
       <c r="J8">
-        <v>0.1579505784464177</v>
+        <v>0.3244320423012451</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -930,28 +930,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.01989833333333333</v>
+        <v>0.01339666666666667</v>
       </c>
       <c r="N8">
-        <v>0.05969500000000001</v>
+        <v>0.04019</v>
       </c>
       <c r="O8">
-        <v>0.003279701059602489</v>
+        <v>0.08393217762128816</v>
       </c>
       <c r="P8">
-        <v>0.003279701059602489</v>
+        <v>0.08393217762128814</v>
       </c>
       <c r="Q8">
-        <v>0.3780780569855555</v>
+        <v>0.5922339811911111</v>
       </c>
       <c r="R8">
-        <v>3.40270251287</v>
+        <v>5.33010583072</v>
       </c>
       <c r="S8">
-        <v>0.0005180306794955422</v>
+        <v>0.02723028780046538</v>
       </c>
       <c r="T8">
-        <v>0.0005180306794955422</v>
+        <v>0.02723028780046537</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>19.00048866666667</v>
+        <v>44.20756266666667</v>
       </c>
       <c r="H9">
-        <v>57.00146599999999</v>
+        <v>132.622688</v>
       </c>
       <c r="I9">
-        <v>0.1579505784464177</v>
+        <v>0.3244320423012451</v>
       </c>
       <c r="J9">
-        <v>0.1579505784464177</v>
+        <v>0.3244320423012451</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>2.520453</v>
+        <v>0.1260863333333333</v>
       </c>
       <c r="N9">
-        <v>7.561359000000001</v>
+        <v>0.378259</v>
       </c>
       <c r="O9">
-        <v>0.4154283796688972</v>
+        <v>0.7899502755623498</v>
       </c>
       <c r="P9">
-        <v>0.4154283796688972</v>
+        <v>0.7899502755623498</v>
       </c>
       <c r="Q9">
-        <v>47.889838661366</v>
+        <v>5.573969482243555</v>
       </c>
       <c r="R9">
-        <v>431.008547952294</v>
+        <v>50.165725340192</v>
       </c>
       <c r="S9">
-        <v>0.06561715287176036</v>
+        <v>0.2562851812171245</v>
       </c>
       <c r="T9">
-        <v>0.06561715287176036</v>
+        <v>0.2562851812171245</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,46 +1036,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>19.00048866666667</v>
+        <v>44.20756266666667</v>
       </c>
       <c r="H10">
-        <v>57.00146599999999</v>
+        <v>132.622688</v>
       </c>
       <c r="I10">
-        <v>0.1579505784464177</v>
+        <v>0.3244320423012451</v>
       </c>
       <c r="J10">
-        <v>0.1579505784464177</v>
+        <v>0.3244320423012451</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>3.526766666666667</v>
+        <v>0.02013</v>
       </c>
       <c r="N10">
-        <v>10.5803</v>
+        <v>0.06039</v>
       </c>
       <c r="O10">
-        <v>0.5812919192715004</v>
+        <v>0.1261175468163621</v>
       </c>
       <c r="P10">
-        <v>0.5812919192715004</v>
+        <v>0.1261175468163621</v>
       </c>
       <c r="Q10">
-        <v>67.01029007997778</v>
+        <v>0.88989823648</v>
       </c>
       <c r="R10">
-        <v>603.0926107197999</v>
+        <v>8.009084128320001</v>
       </c>
       <c r="S10">
-        <v>0.09181539489516186</v>
+        <v>0.04091657328365524</v>
       </c>
       <c r="T10">
-        <v>0.09181539489516186</v>
+        <v>0.04091657328365524</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>14.58528666666667</v>
+        <v>12.94423466666667</v>
       </c>
       <c r="H11">
-        <v>43.75586000000001</v>
+        <v>38.832704</v>
       </c>
       <c r="I11">
-        <v>0.1212471166517099</v>
+        <v>0.09499561241587662</v>
       </c>
       <c r="J11">
-        <v>0.1212471166517099</v>
+        <v>0.09499561241587662</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1116,28 +1116,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.01989833333333333</v>
+        <v>0.01339666666666667</v>
       </c>
       <c r="N11">
-        <v>0.05969500000000001</v>
+        <v>0.04019</v>
       </c>
       <c r="O11">
-        <v>0.003279701059602489</v>
+        <v>0.08393217762128816</v>
       </c>
       <c r="P11">
-        <v>0.003279701059602489</v>
+        <v>0.08393217762128814</v>
       </c>
       <c r="Q11">
-        <v>0.2902228958555556</v>
+        <v>0.1734095970844444</v>
       </c>
       <c r="R11">
-        <v>2.6120060627</v>
+        <v>1.56068637376</v>
       </c>
       <c r="S11">
-        <v>0.0003976542969563594</v>
+        <v>0.007973188614532403</v>
       </c>
       <c r="T11">
-        <v>0.0003976542969563595</v>
+        <v>0.007973188614532402</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>14.58528666666667</v>
+        <v>12.94423466666667</v>
       </c>
       <c r="H12">
-        <v>43.75586000000001</v>
+        <v>38.832704</v>
       </c>
       <c r="I12">
-        <v>0.1212471166517099</v>
+        <v>0.09499561241587662</v>
       </c>
       <c r="J12">
-        <v>0.1212471166517099</v>
+        <v>0.09499561241587662</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>2.520453</v>
+        <v>0.1260863333333333</v>
       </c>
       <c r="N12">
-        <v>7.561359000000001</v>
+        <v>0.378259</v>
       </c>
       <c r="O12">
-        <v>0.4154283796688972</v>
+        <v>0.7899502755623498</v>
       </c>
       <c r="P12">
-        <v>0.4154283796688972</v>
+        <v>0.7899502755623498</v>
       </c>
       <c r="Q12">
-        <v>36.76152953486001</v>
+        <v>1.632091086926222</v>
       </c>
       <c r="R12">
-        <v>330.8537658137401</v>
+        <v>14.688819782336</v>
       </c>
       <c r="S12">
-        <v>0.05036949321014559</v>
+        <v>0.07504181020513591</v>
       </c>
       <c r="T12">
-        <v>0.0503694932101456</v>
+        <v>0.07504181020513591</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,46 +1222,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>14.58528666666667</v>
+        <v>12.94423466666667</v>
       </c>
       <c r="H13">
-        <v>43.75586000000001</v>
+        <v>38.832704</v>
       </c>
       <c r="I13">
-        <v>0.1212471166517099</v>
+        <v>0.09499561241587662</v>
       </c>
       <c r="J13">
-        <v>0.1212471166517099</v>
+        <v>0.09499561241587662</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>3.526766666666667</v>
+        <v>0.02013</v>
       </c>
       <c r="N13">
-        <v>10.5803</v>
+        <v>0.06039</v>
       </c>
       <c r="O13">
-        <v>0.5812919192715004</v>
+        <v>0.1261175468163621</v>
       </c>
       <c r="P13">
-        <v>0.5812919192715004</v>
+        <v>0.1261175468163621</v>
       </c>
       <c r="Q13">
-        <v>51.43890283977779</v>
+        <v>0.26056744384</v>
       </c>
       <c r="R13">
-        <v>462.9501255580001</v>
+        <v>2.34510699456</v>
       </c>
       <c r="S13">
-        <v>0.07047996914460793</v>
+        <v>0.0119806135962083</v>
       </c>
       <c r="T13">
-        <v>0.07047996914460793</v>
+        <v>0.0119806135962083</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>31.70235733333334</v>
+        <v>26.481475</v>
       </c>
       <c r="H14">
-        <v>95.107072</v>
+        <v>79.444425</v>
       </c>
       <c r="I14">
-        <v>0.2635408892245877</v>
+        <v>0.1943431960314218</v>
       </c>
       <c r="J14">
-        <v>0.2635408892245877</v>
+        <v>0.1943431960314218</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1302,28 +1302,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.01989833333333333</v>
+        <v>0.01339666666666667</v>
       </c>
       <c r="N14">
-        <v>0.05969500000000001</v>
+        <v>0.04019</v>
       </c>
       <c r="O14">
-        <v>0.003279701059602489</v>
+        <v>0.08393217762128816</v>
       </c>
       <c r="P14">
-        <v>0.003279701059602489</v>
+        <v>0.08393217762128814</v>
       </c>
       <c r="Q14">
-        <v>0.6308240736711112</v>
+        <v>0.3547634934166666</v>
       </c>
       <c r="R14">
-        <v>5.677416663040001</v>
+        <v>3.192871440749999</v>
       </c>
       <c r="S14">
-        <v>0.0008643353336384625</v>
+        <v>0.01631164764879812</v>
       </c>
       <c r="T14">
-        <v>0.0008643353336384625</v>
+        <v>0.01631164764879811</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,46 +1346,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>31.70235733333334</v>
+        <v>26.481475</v>
       </c>
       <c r="H15">
-        <v>95.107072</v>
+        <v>79.444425</v>
       </c>
       <c r="I15">
-        <v>0.2635408892245877</v>
+        <v>0.1943431960314218</v>
       </c>
       <c r="J15">
-        <v>0.2635408892245877</v>
+        <v>0.1943431960314218</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>2.520453</v>
+        <v>0.1260863333333333</v>
       </c>
       <c r="N15">
-        <v>7.561359000000001</v>
+        <v>0.378259</v>
       </c>
       <c r="O15">
-        <v>0.4154283796688972</v>
+        <v>0.7899502755623498</v>
       </c>
       <c r="P15">
-        <v>0.4154283796688972</v>
+        <v>0.7899502755623498</v>
       </c>
       <c r="Q15">
-        <v>79.90430164787202</v>
+        <v>3.338952084008333</v>
       </c>
       <c r="R15">
-        <v>719.1387148308481</v>
+        <v>30.050568756075</v>
       </c>
       <c r="S15">
-        <v>0.1094823645870708</v>
+        <v>0.1535214612586894</v>
       </c>
       <c r="T15">
-        <v>0.1094823645870708</v>
+        <v>0.1535214612586894</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>31.70235733333334</v>
+        <v>26.481475</v>
       </c>
       <c r="H16">
-        <v>95.107072</v>
+        <v>79.444425</v>
       </c>
       <c r="I16">
-        <v>0.2635408892245877</v>
+        <v>0.1943431960314218</v>
       </c>
       <c r="J16">
-        <v>0.2635408892245877</v>
+        <v>0.1943431960314218</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>3.526766666666667</v>
+        <v>0.02013</v>
       </c>
       <c r="N16">
-        <v>10.5803</v>
+        <v>0.06039</v>
       </c>
       <c r="O16">
-        <v>0.5812919192715004</v>
+        <v>0.1261175468163621</v>
       </c>
       <c r="P16">
-        <v>0.5812919192715004</v>
+        <v>0.1261175468163621</v>
       </c>
       <c r="Q16">
-        <v>111.8068170979556</v>
+        <v>0.5330720917499999</v>
       </c>
       <c r="R16">
-        <v>1006.2613538816</v>
+        <v>4.79764882575</v>
       </c>
       <c r="S16">
-        <v>0.1531941893038785</v>
+        <v>0.02451008712393427</v>
       </c>
       <c r="T16">
-        <v>0.1531941893038785</v>
+        <v>0.02451008712393427</v>
       </c>
     </row>
   </sheetData>
